--- a/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.76118753197871</v>
+        <v>24.24752533316889</v>
       </c>
       <c r="C2">
-        <v>19.24074239099125</v>
+        <v>13.09709201452181</v>
       </c>
       <c r="D2">
-        <v>6.473820562231179</v>
+        <v>6.013173725496636</v>
       </c>
       <c r="E2">
-        <v>15.83904133795781</v>
+        <v>5.518987457792138</v>
       </c>
       <c r="F2">
-        <v>63.29465991343759</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>66.84038728211932</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.90497593109386</v>
+        <v>6.77401737668248</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.489700940969985</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.79778216032414</v>
+        <v>22.90441531182648</v>
       </c>
       <c r="C3">
-        <v>17.77248157332193</v>
+        <v>12.1008724924427</v>
       </c>
       <c r="D3">
-        <v>6.184674531095278</v>
+        <v>5.687762174587387</v>
       </c>
       <c r="E3">
-        <v>14.6191711542038</v>
+        <v>5.539998563709605</v>
       </c>
       <c r="F3">
-        <v>59.14471843791114</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>63.79768151002779</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.84023380909271</v>
+        <v>6.753411965042592</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.450030819929947</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.54560097663816</v>
+        <v>22.07349433727318</v>
       </c>
       <c r="C4">
-        <v>16.83767761235292</v>
+        <v>11.46395529739884</v>
       </c>
       <c r="D4">
-        <v>6.007667880621077</v>
+        <v>5.483971251701578</v>
       </c>
       <c r="E4">
-        <v>13.84367877706312</v>
+        <v>5.55379104873272</v>
       </c>
       <c r="F4">
-        <v>56.54374531903613</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>61.91617684118999</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.18260534315428</v>
+        <v>6.742366796228537</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.431830226674442</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.02300458168507</v>
+        <v>21.73356940006057</v>
       </c>
       <c r="C5">
-        <v>16.4478457851054</v>
+        <v>11.19784466481425</v>
       </c>
       <c r="D5">
-        <v>5.935582571644769</v>
+        <v>5.3999179409328</v>
       </c>
       <c r="E5">
-        <v>13.52054794079843</v>
+        <v>5.559631561429514</v>
       </c>
       <c r="F5">
-        <v>55.47001639816719</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>61.14632883943699</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.94801304744763</v>
+        <v>6.738244148078083</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.425898803085651</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.93546781849281</v>
+        <v>21.67705499718838</v>
       </c>
       <c r="C6">
-        <v>16.38256347225717</v>
+        <v>11.15325509764173</v>
       </c>
       <c r="D6">
-        <v>5.923613545318902</v>
+        <v>5.385900371819603</v>
       </c>
       <c r="E6">
-        <v>13.46645071271911</v>
+        <v>5.560614551084687</v>
       </c>
       <c r="F6">
-        <v>55.29088219914975</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>61.01831727852288</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.90890969864929</v>
+        <v>6.737581730972561</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.42500183322732</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53860367656445</v>
+        <v>22.06891491387515</v>
       </c>
       <c r="C7">
-        <v>16.83245684741547</v>
+        <v>11.46039327013123</v>
       </c>
       <c r="D7">
-        <v>6.006695623774889</v>
+        <v>5.482841748290349</v>
       </c>
       <c r="E7">
-        <v>13.83935026932506</v>
+        <v>5.553868930295839</v>
       </c>
       <c r="F7">
-        <v>56.52932097518018</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>61.90580662476683</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.17945154557977</v>
+        <v>6.742309697031142</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.431744299602017</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.09350063613473</v>
+        <v>23.78583454430659</v>
       </c>
       <c r="C8">
-        <v>18.74105807960754</v>
+        <v>12.7586935348489</v>
       </c>
       <c r="D8">
-        <v>6.373952931620503</v>
+        <v>5.901790742845582</v>
       </c>
       <c r="E8">
-        <v>15.42363625177526</v>
+        <v>5.526044218347335</v>
       </c>
       <c r="F8">
-        <v>61.87431654408796</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>65.79409295217475</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.54246451554593</v>
+        <v>6.766562951783463</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.474705997973238</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.76577600308678</v>
+        <v>27.0981617440776</v>
       </c>
       <c r="C9">
-        <v>22.24768460074877</v>
+        <v>15.11587459996271</v>
       </c>
       <c r="D9">
-        <v>7.10380015966733</v>
+        <v>6.69299686776607</v>
       </c>
       <c r="E9">
-        <v>18.34451552087933</v>
+        <v>5.478798740625956</v>
       </c>
       <c r="F9">
-        <v>71.98020923010276</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>73.31429894681651</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.08953749229035</v>
+        <v>6.828175548773677</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.610837117758208</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.04857146566192</v>
+        <v>29.61200556514389</v>
       </c>
       <c r="C10">
-        <v>24.72846367344141</v>
+        <v>16.75157598851331</v>
       </c>
       <c r="D10">
-        <v>7.656585900538613</v>
+        <v>7.25930879516924</v>
       </c>
       <c r="E10">
-        <v>20.41931294766764</v>
+        <v>5.448999473776686</v>
       </c>
       <c r="F10">
-        <v>79.33657558629025</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>78.79368762865212</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.89534278987488</v>
+        <v>6.884106096311196</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.747134629098165</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.52642185841797</v>
+        <v>30.81815497458747</v>
       </c>
       <c r="C11">
-        <v>25.8509448298081</v>
+        <v>17.48011641611886</v>
       </c>
       <c r="D11">
-        <v>7.915249084260591</v>
+        <v>7.515007814298219</v>
       </c>
       <c r="E11">
-        <v>21.36056623887076</v>
+        <v>5.436653263265071</v>
       </c>
       <c r="F11">
-        <v>82.76336657182655</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>81.28601738755488</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.71330759260956</v>
+        <v>6.912434725744247</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.818225632452847</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.08573018694002</v>
+        <v>31.27294114271834</v>
       </c>
       <c r="C12">
-        <v>26.27678931571302</v>
+        <v>17.7543066133319</v>
       </c>
       <c r="D12">
-        <v>8.014661198877629</v>
+        <v>7.611713339549081</v>
       </c>
       <c r="E12">
-        <v>21.71808107097082</v>
+        <v>5.432168565382619</v>
       </c>
       <c r="F12">
-        <v>84.06474428916366</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>82.23099834256243</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.02375629022178</v>
+        <v>6.923634889270379</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.84657330266646</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.96525104996841</v>
+        <v>31.17506914027492</v>
       </c>
       <c r="C13">
-        <v>26.18500958509269</v>
+        <v>17.6953202827583</v>
       </c>
       <c r="D13">
-        <v>7.99317768687872</v>
+        <v>7.590888600401382</v>
       </c>
       <c r="E13">
-        <v>21.64100786913467</v>
+        <v>5.43312563581619</v>
       </c>
       <c r="F13">
-        <v>83.78421928771719</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>82.027402807968</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.9568412603403</v>
+        <v>6.921200672337435</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.840402509043359</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.57243003636248</v>
+        <v>30.85560521544435</v>
       </c>
       <c r="C14">
-        <v>25.88595238088787</v>
+        <v>17.50270462314966</v>
       </c>
       <c r="D14">
-        <v>7.923395535707758</v>
+        <v>7.52296525181232</v>
       </c>
       <c r="E14">
-        <v>21.38994763637779</v>
+        <v>5.43628037390985</v>
       </c>
       <c r="F14">
-        <v>82.87032716067618</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>81.36372916869402</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.73882612221263</v>
+        <v>6.913346326342852</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.820528446836656</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.33183986901808</v>
+        <v>30.65969258131479</v>
       </c>
       <c r="C15">
-        <v>25.70293066486049</v>
+        <v>17.38451955726686</v>
       </c>
       <c r="D15">
-        <v>7.880857363563019</v>
+        <v>7.481349616084122</v>
       </c>
       <c r="E15">
-        <v>21.23635738384491</v>
+        <v>5.43823812819616</v>
       </c>
       <c r="F15">
-        <v>82.31117956717328</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>80.95740838537482</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.60541891761402</v>
+        <v>6.908598772929074</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.808544784555269</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.95182976806469</v>
+        <v>29.5328665693778</v>
       </c>
       <c r="C16">
-        <v>24.65511643244941</v>
+        <v>16.70369538758331</v>
       </c>
       <c r="D16">
-        <v>7.639860006478025</v>
+        <v>7.242571863107411</v>
       </c>
       <c r="E16">
-        <v>20.35786297096383</v>
+        <v>5.449831986441755</v>
       </c>
       <c r="F16">
-        <v>79.11288150564879</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>78.63089840902958</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.84191197234265</v>
+        <v>6.882317523370419</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.742681350577204</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.10246733969676</v>
+        <v>28.83734029484787</v>
       </c>
       <c r="C17">
-        <v>24.01180932355708</v>
+        <v>16.28240440775423</v>
       </c>
       <c r="D17">
-        <v>7.494123531672813</v>
+        <v>7.095694734686315</v>
       </c>
       <c r="E17">
-        <v>19.81918606445982</v>
+        <v>5.457264712946996</v>
       </c>
       <c r="F17">
-        <v>77.15822987294013</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>77.20434001338576</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.37338588312852</v>
+        <v>6.866971838610179</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.704683264602784</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.61233700039979</v>
+        <v>28.44547212555313</v>
       </c>
       <c r="C18">
-        <v>23.64110662557752</v>
+        <v>16.03858747323864</v>
       </c>
       <c r="D18">
-        <v>7.410945233972939</v>
+        <v>7.011022806850106</v>
       </c>
       <c r="E18">
-        <v>19.50900350241459</v>
+        <v>5.461652454234783</v>
       </c>
       <c r="F18">
-        <v>76.06634747883481</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>76.38369995030807</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>17.10348362765145</v>
+        <v>6.858413004774675</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.683674990161949</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.44606257822711</v>
+        <v>28.3236000705662</v>
       </c>
       <c r="C19">
-        <v>23.51543141658304</v>
+        <v>15.95576246037181</v>
       </c>
       <c r="D19">
-        <v>7.382882417814894</v>
+        <v>6.982317324810491</v>
       </c>
       <c r="E19">
-        <v>19.40388299887912</v>
+        <v>5.463156977829501</v>
       </c>
       <c r="F19">
-        <v>75.69659932711966</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>76.10579350817372</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>17.01199595474136</v>
+        <v>6.855559494900926</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.676704127380573</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19303678570971</v>
+        <v>28.91155890621957</v>
       </c>
       <c r="C20">
-        <v>24.08035128485517</v>
+        <v>16.32740334538282</v>
       </c>
       <c r="D20">
-        <v>7.509567949852859</v>
+        <v>7.111348952097289</v>
       </c>
       <c r="E20">
-        <v>19.87655610187971</v>
+        <v>5.456461723283585</v>
       </c>
       <c r="F20">
-        <v>77.36115781336864</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>77.35620453745918</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.42329690482579</v>
+        <v>6.868577331838467</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.708639737204135</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.68780186308501</v>
+        <v>30.94948634681771</v>
       </c>
       <c r="C21">
-        <v>25.97375583962469</v>
+        <v>17.55932156665063</v>
       </c>
       <c r="D21">
-        <v>7.943848471146906</v>
+        <v>7.542917864106576</v>
       </c>
       <c r="E21">
-        <v>21.46364699862684</v>
+        <v>5.435348423979533</v>
       </c>
       <c r="F21">
-        <v>83.13861674080835</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>81.5586220468296</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.80283198482806</v>
+        <v>6.915639994336033</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.826326145899669</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.31772921332821</v>
+        <v>32.27044061213243</v>
       </c>
       <c r="C22">
-        <v>27.2169378461651</v>
+        <v>18.35492386225961</v>
       </c>
       <c r="D22">
-        <v>8.236507202539956</v>
+        <v>7.824364839679905</v>
       </c>
       <c r="E22">
-        <v>22.50823466065719</v>
+        <v>5.422671669955133</v>
       </c>
       <c r="F22">
-        <v>86.93935968044842</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>84.31296697125364</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.7093818948949</v>
+        <v>6.949188733237327</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.911631669768199</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.44707039007345</v>
+        <v>31.56615220885375</v>
       </c>
       <c r="C23">
-        <v>26.55222120326178</v>
+        <v>17.93095831488952</v>
       </c>
       <c r="D23">
-        <v>8.079321418196344</v>
+        <v>7.674144604993326</v>
       </c>
       <c r="E23">
-        <v>21.94944574072134</v>
+        <v>5.429328048356815</v>
       </c>
       <c r="F23">
-        <v>84.90673370352525</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>82.84168636466043</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>19.22458797815015</v>
+        <v>6.931005751335495</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.865289080217347</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.152096146076</v>
+        <v>28.87801078777884</v>
       </c>
       <c r="C24">
-        <v>24.04936625104874</v>
+        <v>16.30706438361683</v>
       </c>
       <c r="D24">
-        <v>7.502583666271422</v>
+        <v>7.104272408824549</v>
       </c>
       <c r="E24">
-        <v>19.85062073791263</v>
+        <v>5.456824399245857</v>
       </c>
       <c r="F24">
-        <v>77.26895105508517</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>77.28754820780711</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.40073390111072</v>
+        <v>6.867850671500662</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.706848416617878</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.53289434584749</v>
+        <v>26.20812552072699</v>
       </c>
       <c r="C25">
-        <v>21.31993611018433</v>
+        <v>14.49663361872125</v>
       </c>
       <c r="D25">
-        <v>6.90440828563381</v>
+        <v>6.481933549758202</v>
       </c>
       <c r="E25">
-        <v>17.57042542448871</v>
+        <v>5.490756797772231</v>
       </c>
       <c r="F25">
-        <v>69.27849732817261</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>71.29013444450432</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.4149879461895</v>
+        <v>6.809804770534014</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.568005089531614</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.24752533316889</v>
+        <v>17.20679422227749</v>
       </c>
       <c r="C2">
-        <v>13.09709201452181</v>
+        <v>10.66886410431579</v>
       </c>
       <c r="D2">
-        <v>6.013173725496636</v>
+        <v>4.436891159557051</v>
       </c>
       <c r="E2">
-        <v>5.518987457792138</v>
+        <v>29.44451117629918</v>
       </c>
       <c r="F2">
-        <v>66.84038728211932</v>
+        <v>33.98834007478524</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.77401737668248</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.34139931639027</v>
       </c>
       <c r="L2">
-        <v>6.489700940969985</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>14.83897316827635</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.90441531182648</v>
+        <v>15.96386665660249</v>
       </c>
       <c r="C3">
-        <v>12.1008724924427</v>
+        <v>9.903166996951059</v>
       </c>
       <c r="D3">
-        <v>5.687762174587387</v>
+        <v>4.525017116877124</v>
       </c>
       <c r="E3">
-        <v>5.539998563709605</v>
+        <v>27.24775550795917</v>
       </c>
       <c r="F3">
-        <v>63.79768151002779</v>
+        <v>32.54770663738608</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.753411965042592</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.24781842474702</v>
       </c>
       <c r="L3">
-        <v>6.450030819929947</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>14.91700181444222</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.07349433727318</v>
+        <v>15.16334251513509</v>
       </c>
       <c r="C4">
-        <v>11.46395529739884</v>
+        <v>9.410627758974039</v>
       </c>
       <c r="D4">
-        <v>5.483971251701578</v>
+        <v>4.579048165803361</v>
       </c>
       <c r="E4">
-        <v>5.55379104873272</v>
+        <v>25.84188967941881</v>
       </c>
       <c r="F4">
-        <v>61.91617684118999</v>
+        <v>31.66602331450913</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.742366796228537</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.54321028008964</v>
       </c>
       <c r="L4">
-        <v>6.431830226674442</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>14.97087897234582</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.73356940006057</v>
+        <v>14.82757462263854</v>
       </c>
       <c r="C5">
-        <v>11.19784466481425</v>
+        <v>9.204156806298815</v>
       </c>
       <c r="D5">
-        <v>5.3999179409328</v>
+        <v>4.601076083245101</v>
       </c>
       <c r="E5">
-        <v>5.559631561429514</v>
+        <v>25.25414725391536</v>
       </c>
       <c r="F5">
-        <v>61.14632883943699</v>
+        <v>31.30771666009068</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.738244148078083</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.2475831226872</v>
       </c>
       <c r="L5">
-        <v>6.425898803085651</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>14.99425655398749</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.67705499718838</v>
+        <v>14.77123981303616</v>
       </c>
       <c r="C6">
-        <v>11.15325509764173</v>
+        <v>9.169521265833341</v>
       </c>
       <c r="D6">
-        <v>5.385900371819603</v>
+        <v>4.60473522181182</v>
       </c>
       <c r="E6">
-        <v>5.560614551084687</v>
+        <v>25.15564306868151</v>
       </c>
       <c r="F6">
-        <v>61.01831727852288</v>
+        <v>31.24828859433477</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.737581730972561</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.19797702506968</v>
       </c>
       <c r="L6">
-        <v>6.42500183322732</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>14.99822213091293</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.06891491387515</v>
+        <v>15.15885308063853</v>
       </c>
       <c r="C7">
-        <v>11.46039327013123</v>
+        <v>9.407866688760688</v>
       </c>
       <c r="D7">
-        <v>5.482841748290349</v>
+        <v>4.579345164587336</v>
       </c>
       <c r="E7">
-        <v>5.553868930295839</v>
+        <v>25.83402389260246</v>
       </c>
       <c r="F7">
-        <v>61.90580662476683</v>
+        <v>31.66118667723913</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.742309697031142</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.53925794164384</v>
       </c>
       <c r="L7">
-        <v>6.431744299602017</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>14.97118859025598</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78583454430659</v>
+        <v>16.78588962013863</v>
       </c>
       <c r="C8">
-        <v>12.7586935348489</v>
+        <v>10.40942202253784</v>
       </c>
       <c r="D8">
-        <v>5.901790742845582</v>
+        <v>4.467311805732412</v>
       </c>
       <c r="E8">
-        <v>5.526044218347335</v>
+        <v>28.6985977581065</v>
       </c>
       <c r="F8">
-        <v>65.79409295217475</v>
+        <v>33.49115194365366</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.766562951783463</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.97111243986301</v>
       </c>
       <c r="L8">
-        <v>6.474705997973238</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>14.86458943476713</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.0981617440776</v>
+        <v>19.68792813935866</v>
       </c>
       <c r="C9">
-        <v>15.11587459996271</v>
+        <v>12.20197486868734</v>
       </c>
       <c r="D9">
-        <v>6.69299686776607</v>
+        <v>4.245537045341083</v>
       </c>
       <c r="E9">
-        <v>5.478798740625956</v>
+        <v>33.88839886403954</v>
       </c>
       <c r="F9">
-        <v>73.31429894681651</v>
+        <v>37.09470821245088</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.828175548773677</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.52383707487795</v>
       </c>
       <c r="L9">
-        <v>6.610837117758208</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.70685092548474</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.61200556514389</v>
+        <v>21.65668506035883</v>
       </c>
       <c r="C10">
-        <v>16.75157598851331</v>
+        <v>13.42415215955318</v>
       </c>
       <c r="D10">
-        <v>7.25930879516924</v>
+        <v>4.079123080225111</v>
       </c>
       <c r="E10">
-        <v>5.448999473776686</v>
+        <v>37.4806136507238</v>
       </c>
       <c r="F10">
-        <v>78.79368762865212</v>
+        <v>39.74750534339362</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.884106096311196</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.25595847879528</v>
       </c>
       <c r="L10">
-        <v>6.747134629098165</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>14.62848486748839</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.81815497458747</v>
+        <v>22.52014521217185</v>
       </c>
       <c r="C11">
-        <v>17.48011641611886</v>
+        <v>13.96209612006384</v>
       </c>
       <c r="D11">
-        <v>7.515007814298219</v>
+        <v>4.002120413745538</v>
       </c>
       <c r="E11">
-        <v>5.436653263265071</v>
+        <v>39.07757486793397</v>
       </c>
       <c r="F11">
-        <v>81.28601738755488</v>
+        <v>40.95674760432654</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.912434725744247</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.01594191875747</v>
       </c>
       <c r="L11">
-        <v>6.818225632452847</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>14.60262309149664</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.27294114271834</v>
+        <v>22.84281494388624</v>
       </c>
       <c r="C12">
-        <v>17.7543066133319</v>
+        <v>14.16345582757801</v>
       </c>
       <c r="D12">
-        <v>7.611713339549081</v>
+        <v>3.972725345729557</v>
       </c>
       <c r="E12">
-        <v>5.432168565382619</v>
+        <v>39.67803337096533</v>
       </c>
       <c r="F12">
-        <v>82.23099834256243</v>
+        <v>41.41527181393658</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.923634889270379</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.30000828068301</v>
       </c>
       <c r="L12">
-        <v>6.84657330266646</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>14.5943984321824</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.17506914027492</v>
+        <v>22.77350809294952</v>
       </c>
       <c r="C13">
-        <v>17.6953202827583</v>
+        <v>14.12018953752253</v>
       </c>
       <c r="D13">
-        <v>7.590888600401382</v>
+        <v>3.979067405206202</v>
       </c>
       <c r="E13">
-        <v>5.43312563581619</v>
+        <v>39.5488850647989</v>
       </c>
       <c r="F13">
-        <v>82.027402807968</v>
+        <v>41.31648774940708</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.921200672337435</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.2389898566076</v>
       </c>
       <c r="L13">
-        <v>6.840402509043359</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.59609717777099</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.85560521544435</v>
+        <v>22.54677571372666</v>
       </c>
       <c r="C14">
-        <v>17.50270462314966</v>
+        <v>13.97870762605581</v>
       </c>
       <c r="D14">
-        <v>7.52296525181232</v>
+        <v>3.999707083109989</v>
       </c>
       <c r="E14">
-        <v>5.43628037390985</v>
+        <v>39.12705387270848</v>
       </c>
       <c r="F14">
-        <v>81.36372916869402</v>
+        <v>40.99445648722189</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.913346326342852</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.03938497499088</v>
       </c>
       <c r="L14">
-        <v>6.820528446836656</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.60191399999791</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.65969258131479</v>
+        <v>22.40734531822595</v>
       </c>
       <c r="C15">
-        <v>17.38451955726686</v>
+        <v>13.89174799087753</v>
       </c>
       <c r="D15">
-        <v>7.481349616084122</v>
+        <v>4.012317256892578</v>
       </c>
       <c r="E15">
-        <v>5.43823812819616</v>
+        <v>38.86814803886765</v>
       </c>
       <c r="F15">
-        <v>80.95740838537482</v>
+        <v>40.79729241811296</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.908598772929074</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.91664599650571</v>
       </c>
       <c r="L15">
-        <v>6.808544784555269</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>14.60568643191762</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.5328665693778</v>
+        <v>21.59963531168275</v>
       </c>
       <c r="C16">
-        <v>16.70369538758331</v>
+        <v>13.3886535384738</v>
       </c>
       <c r="D16">
-        <v>7.242571863107411</v>
+        <v>4.084125129735625</v>
       </c>
       <c r="E16">
-        <v>5.449831986441755</v>
+        <v>37.37558793789951</v>
       </c>
       <c r="F16">
-        <v>78.63089840902958</v>
+        <v>39.66854701402943</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.882317523370419</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.20575358952359</v>
       </c>
       <c r="L16">
-        <v>6.742681350577204</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>14.63038521232478</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.83734029484787</v>
+        <v>21.09611192542416</v>
       </c>
       <c r="C17">
-        <v>16.28240440775423</v>
+        <v>13.07556638028548</v>
       </c>
       <c r="D17">
-        <v>7.095694734686315</v>
+        <v>4.12781033385199</v>
       </c>
       <c r="E17">
-        <v>5.457264712946996</v>
+        <v>36.4511383136994</v>
       </c>
       <c r="F17">
-        <v>77.20434001338576</v>
+        <v>38.97687122803424</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.866971838610179</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.7626807443055</v>
       </c>
       <c r="L17">
-        <v>6.704683264602784</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>14.64815165358513</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44547212555313</v>
+        <v>20.80345217739152</v>
       </c>
       <c r="C18">
-        <v>16.03858747323864</v>
+        <v>12.89377320740986</v>
       </c>
       <c r="D18">
-        <v>7.011022806850106</v>
+        <v>4.152817689813787</v>
       </c>
       <c r="E18">
-        <v>5.461652454234783</v>
+        <v>35.91584869836151</v>
       </c>
       <c r="F18">
-        <v>76.38369995030807</v>
+        <v>38.57924728638064</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.858413004774675</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.50518441112314</v>
       </c>
       <c r="L18">
-        <v>6.683674990161949</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.65928077931593</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3236000705662</v>
+        <v>20.70383045686754</v>
       </c>
       <c r="C19">
-        <v>15.95576246037181</v>
+        <v>12.83191994874508</v>
       </c>
       <c r="D19">
-        <v>6.982317324810491</v>
+        <v>4.161265704000999</v>
       </c>
       <c r="E19">
-        <v>5.463156977829501</v>
+        <v>35.73396593007788</v>
       </c>
       <c r="F19">
-        <v>76.10579350817372</v>
+        <v>38.44464904656611</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.855559494900926</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.41753656520532</v>
       </c>
       <c r="L19">
-        <v>6.676704127380573</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.66320071033501</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.91155890621957</v>
+        <v>21.15002598886343</v>
       </c>
       <c r="C20">
-        <v>16.32740334538282</v>
+        <v>13.10907074802712</v>
       </c>
       <c r="D20">
-        <v>7.111348952097289</v>
+        <v>4.123172650222512</v>
       </c>
       <c r="E20">
-        <v>5.456461723283585</v>
+        <v>36.54990994532012</v>
       </c>
       <c r="F20">
-        <v>77.35620453745918</v>
+        <v>39.0504781723232</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.868577331838467</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.81011910297343</v>
       </c>
       <c r="L20">
-        <v>6.708639737204135</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>14.6461650726843</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.94948634681771</v>
+        <v>22.61348654955831</v>
       </c>
       <c r="C21">
-        <v>17.55932156665063</v>
+        <v>14.02032587986225</v>
       </c>
       <c r="D21">
-        <v>7.542917864106576</v>
+        <v>3.993651517345211</v>
       </c>
       <c r="E21">
-        <v>5.435348423979533</v>
+        <v>39.25106253990956</v>
       </c>
       <c r="F21">
-        <v>81.5586220468296</v>
+        <v>41.08902559922302</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.915639994336033</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.09811220778884</v>
       </c>
       <c r="L21">
-        <v>6.826326145899669</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>14.60016148597439</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.27044061213243</v>
+        <v>23.54503979677077</v>
       </c>
       <c r="C22">
-        <v>18.35492386225961</v>
+        <v>14.60234011826652</v>
       </c>
       <c r="D22">
-        <v>7.824364839679905</v>
+        <v>3.907602158079531</v>
       </c>
       <c r="E22">
-        <v>5.422671669955133</v>
+        <v>40.99213634454112</v>
       </c>
       <c r="F22">
-        <v>84.31296697125364</v>
+        <v>42.42511173990226</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.949188733237327</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.91836224387404</v>
       </c>
       <c r="L22">
-        <v>6.911631669768199</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>14.57933098325974</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.56615220885375</v>
+        <v>23.05001311590598</v>
       </c>
       <c r="C23">
-        <v>17.93095831488952</v>
+        <v>14.29285633635522</v>
       </c>
       <c r="D23">
-        <v>7.674144604993326</v>
+        <v>3.953673483780597</v>
       </c>
       <c r="E23">
-        <v>5.429328048356815</v>
+        <v>40.06471115588675</v>
       </c>
       <c r="F23">
-        <v>82.84168636466043</v>
+        <v>41.71155110371478</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.931005751335495</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.48243863293568</v>
       </c>
       <c r="L23">
-        <v>6.865289080217347</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>14.58954404486717</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.87801078777884</v>
+        <v>21.12566136112098</v>
       </c>
       <c r="C24">
-        <v>16.30706438361683</v>
+        <v>13.09392903293832</v>
       </c>
       <c r="D24">
-        <v>7.104272408824549</v>
+        <v>4.125269679313854</v>
       </c>
       <c r="E24">
-        <v>5.456824399245857</v>
+        <v>36.50526723927312</v>
       </c>
       <c r="F24">
-        <v>77.28754820780711</v>
+        <v>39.01720039782723</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.867850671500662</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.78868086420106</v>
       </c>
       <c r="L24">
-        <v>6.706848416617878</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>14.64706036795281</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20812552072699</v>
+        <v>18.93254378747418</v>
       </c>
       <c r="C25">
-        <v>14.49663361872125</v>
+        <v>11.73446458187092</v>
       </c>
       <c r="D25">
-        <v>6.481933549758202</v>
+        <v>4.305972011458675</v>
       </c>
       <c r="E25">
-        <v>5.490756797772231</v>
+        <v>32.52639930716663</v>
       </c>
       <c r="F25">
-        <v>71.29013444450432</v>
+        <v>36.11899212236079</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.809804770534014</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.85939448927666</v>
       </c>
       <c r="L25">
-        <v>6.568005089531614</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.74343379664967</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.20679422227749</v>
+        <v>13.60954197817034</v>
       </c>
       <c r="C2">
-        <v>10.66886410431579</v>
+        <v>6.393399622049738</v>
       </c>
       <c r="D2">
-        <v>4.436891159557051</v>
+        <v>6.484671421832314</v>
       </c>
       <c r="E2">
-        <v>29.44451117629918</v>
+        <v>16.30822471466247</v>
       </c>
       <c r="F2">
-        <v>33.98834007478524</v>
+        <v>35.06749170459229</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.34139931639027</v>
+        <v>12.91713939145572</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.83897316827635</v>
+        <v>20.891858391433</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.96386665660249</v>
+        <v>13.2992885757827</v>
       </c>
       <c r="C3">
-        <v>9.903166996951059</v>
+        <v>6.111244584545777</v>
       </c>
       <c r="D3">
-        <v>4.525017116877124</v>
+        <v>6.49869982611556</v>
       </c>
       <c r="E3">
-        <v>27.24775550795917</v>
+        <v>15.39321256051904</v>
       </c>
       <c r="F3">
-        <v>32.54770663738608</v>
+        <v>34.78736585981594</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.24781842474702</v>
+        <v>12.69698921044756</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.91700181444222</v>
+        <v>20.9195938942269</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.16334251513509</v>
+        <v>13.10965990068869</v>
       </c>
       <c r="C4">
-        <v>9.410627758974039</v>
+        <v>5.933454043404323</v>
       </c>
       <c r="D4">
-        <v>4.579048165803361</v>
+        <v>6.507556599173099</v>
       </c>
       <c r="E4">
-        <v>25.84188967941881</v>
+        <v>14.80825640629559</v>
       </c>
       <c r="F4">
-        <v>31.66602331450913</v>
+        <v>34.6231509947717</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.54321028008964</v>
+        <v>12.56406682283926</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.97087897234582</v>
+        <v>20.9384568268156</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.82757462263854</v>
+        <v>13.03272826527362</v>
       </c>
       <c r="C5">
-        <v>9.204156806298815</v>
+        <v>5.859983051374364</v>
       </c>
       <c r="D5">
-        <v>4.601076083245101</v>
+        <v>6.511227304035269</v>
       </c>
       <c r="E5">
-        <v>25.25414725391536</v>
+        <v>14.56434032838415</v>
       </c>
       <c r="F5">
-        <v>31.30771666009068</v>
+        <v>34.55824208636092</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.2475831226872</v>
+        <v>12.51054216047675</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.99425655398749</v>
+        <v>20.94660367206179</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77123981303616</v>
+        <v>13.01997828563072</v>
       </c>
       <c r="C6">
-        <v>9.169521265833341</v>
+        <v>5.84772555155997</v>
       </c>
       <c r="D6">
-        <v>4.60473522181182</v>
+        <v>6.51184054558383</v>
       </c>
       <c r="E6">
-        <v>25.15564306868151</v>
+        <v>14.52351264597438</v>
       </c>
       <c r="F6">
-        <v>31.24828859433477</v>
+        <v>34.54758687092048</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.19797702506968</v>
+        <v>12.5016954376963</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.99822213091293</v>
+        <v>20.94798420787842</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.15885308063853</v>
+        <v>13.10862081530594</v>
       </c>
       <c r="C7">
-        <v>9.407866688760688</v>
+        <v>5.93246714334597</v>
       </c>
       <c r="D7">
-        <v>4.579345164587336</v>
+        <v>6.507605854198372</v>
       </c>
       <c r="E7">
-        <v>25.83402389260246</v>
+        <v>14.80498890344664</v>
       </c>
       <c r="F7">
-        <v>31.66118667723913</v>
+        <v>34.62226740577962</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.53925794164384</v>
+        <v>12.56334226974296</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.97118859025598</v>
+        <v>20.93856483664792</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.78588962013863</v>
+        <v>13.50246073389704</v>
       </c>
       <c r="C8">
-        <v>10.40942202253784</v>
+        <v>6.297125440170423</v>
       </c>
       <c r="D8">
-        <v>4.467311805732412</v>
+        <v>6.48945812067759</v>
       </c>
       <c r="E8">
-        <v>28.6985977581065</v>
+        <v>15.99768001179848</v>
       </c>
       <c r="F8">
-        <v>33.49115194365366</v>
+        <v>34.96932169457211</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.97111243986301</v>
+        <v>12.84081046580321</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.86458943476713</v>
+        <v>20.9010405474021</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.68792813935866</v>
+        <v>14.27632484620003</v>
       </c>
       <c r="C9">
-        <v>12.20197486868734</v>
+        <v>6.971478470939132</v>
       </c>
       <c r="D9">
-        <v>4.245537045341083</v>
+        <v>6.455785322062487</v>
       </c>
       <c r="E9">
-        <v>33.88839886403954</v>
+        <v>18.16694151412855</v>
       </c>
       <c r="F9">
-        <v>37.09470821245088</v>
+        <v>35.70915304109329</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.52383707487795</v>
+        <v>13.39941147107716</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.70685092548474</v>
+        <v>20.84204368229366</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.65668506035883</v>
+        <v>14.83898125040862</v>
       </c>
       <c r="C10">
-        <v>13.42415215955318</v>
+        <v>7.436798923953047</v>
       </c>
       <c r="D10">
-        <v>4.079123080225111</v>
+        <v>6.432190744138206</v>
       </c>
       <c r="E10">
-        <v>37.4806136507238</v>
+        <v>19.79230145112535</v>
       </c>
       <c r="F10">
-        <v>39.74750534339362</v>
+        <v>36.28525387245367</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.25595847879528</v>
+        <v>13.81416497874535</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.62848486748839</v>
+        <v>20.80765111702454</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.52014521217185</v>
+        <v>15.09232927512505</v>
       </c>
       <c r="C11">
-        <v>13.96209612006384</v>
+        <v>7.641072030997472</v>
       </c>
       <c r="D11">
-        <v>4.002120413745538</v>
+        <v>6.421700686622358</v>
       </c>
       <c r="E11">
-        <v>39.07757486793397</v>
+        <v>20.49057219916623</v>
       </c>
       <c r="F11">
-        <v>40.95674760432654</v>
+        <v>36.55358423532507</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.01594191875747</v>
+        <v>14.00286883827783</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.60262309149664</v>
+        <v>20.79396176333264</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.84281494388624</v>
+        <v>15.18778806604158</v>
       </c>
       <c r="C12">
-        <v>14.16345582757801</v>
+        <v>7.717301828672936</v>
       </c>
       <c r="D12">
-        <v>3.972725345729557</v>
+        <v>6.417762997475804</v>
       </c>
       <c r="E12">
-        <v>39.67803337096533</v>
+        <v>20.74911539155542</v>
       </c>
       <c r="F12">
-        <v>41.41527181393658</v>
+        <v>36.65602188190193</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.30000828068301</v>
+        <v>14.07425658488973</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.5943984321824</v>
+        <v>20.7890602798137</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.77350809294952</v>
+        <v>15.16725216986949</v>
       </c>
       <c r="C13">
-        <v>14.12018953752253</v>
+        <v>7.700935216203499</v>
       </c>
       <c r="D13">
-        <v>3.979067405206202</v>
+        <v>6.4186095123013</v>
       </c>
       <c r="E13">
-        <v>39.5488850647989</v>
+        <v>20.69369430052276</v>
       </c>
       <c r="F13">
-        <v>41.31648774940708</v>
+        <v>36.63392451363456</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.2389898566076</v>
+        <v>14.05888624086138</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.59609717777099</v>
+        <v>20.79010332551457</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54677571372666</v>
+        <v>15.10019288827499</v>
       </c>
       <c r="C14">
-        <v>13.97870762605581</v>
+        <v>7.647366336390189</v>
       </c>
       <c r="D14">
-        <v>3.999707083109989</v>
+        <v>6.421376037533744</v>
       </c>
       <c r="E14">
-        <v>39.12705387270848</v>
+        <v>20.5119602811163</v>
       </c>
       <c r="F14">
-        <v>40.99445648722189</v>
+        <v>36.56199569761717</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.03938497499088</v>
+        <v>14.00874377750369</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.60191399999791</v>
+        <v>20.79355284973228</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.40734531822595</v>
+        <v>15.05905185548993</v>
       </c>
       <c r="C15">
-        <v>13.89174799087753</v>
+        <v>7.614405868361517</v>
       </c>
       <c r="D15">
-        <v>4.012317256892578</v>
+        <v>6.423075119774873</v>
       </c>
       <c r="E15">
-        <v>38.86814803886765</v>
+        <v>20.3998786606917</v>
       </c>
       <c r="F15">
-        <v>40.79729241811296</v>
+        <v>36.51804268920968</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.91664599650571</v>
+        <v>13.97801874830459</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.60568643191762</v>
+        <v>20.79570258965539</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.59963531168275</v>
+        <v>14.82236287387837</v>
       </c>
       <c r="C16">
-        <v>13.3886535384738</v>
+        <v>7.423294929176717</v>
       </c>
       <c r="D16">
-        <v>4.084125129735625</v>
+        <v>6.432881162112674</v>
       </c>
       <c r="E16">
-        <v>37.37558793789951</v>
+        <v>19.74584352617361</v>
       </c>
       <c r="F16">
-        <v>39.66854701402943</v>
+        <v>36.26783757199029</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.20575358952359</v>
+        <v>13.80182689957533</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.63038521232478</v>
+        <v>20.80858520284796</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.09611192542416</v>
+        <v>14.6764180950288</v>
       </c>
       <c r="C17">
-        <v>13.07556638028548</v>
+        <v>7.304113088791846</v>
       </c>
       <c r="D17">
-        <v>4.12781033385199</v>
+        <v>6.438958929172565</v>
       </c>
       <c r="E17">
-        <v>36.4511383136994</v>
+        <v>19.33410914472457</v>
       </c>
       <c r="F17">
-        <v>38.97687122803424</v>
+        <v>36.1158963162996</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.7626807443055</v>
+        <v>13.69369265663084</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.64815165358513</v>
+        <v>20.81699003489422</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.80345217739152</v>
+        <v>14.59223488412194</v>
       </c>
       <c r="C18">
-        <v>12.89377320740986</v>
+        <v>7.234868908005302</v>
       </c>
       <c r="D18">
-        <v>4.152817689813787</v>
+        <v>6.442477612752498</v>
       </c>
       <c r="E18">
-        <v>35.91584869836151</v>
+        <v>19.09341850779614</v>
       </c>
       <c r="F18">
-        <v>38.57924728638064</v>
+        <v>36.02909737193072</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.50518441112314</v>
+        <v>13.63150386155303</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.65928077931593</v>
+        <v>20.8220083135886</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.70383045686754</v>
+        <v>14.56369401187717</v>
       </c>
       <c r="C19">
-        <v>12.83191994874508</v>
+        <v>7.211306797032835</v>
       </c>
       <c r="D19">
-        <v>4.161265704000999</v>
+        <v>6.443672923258392</v>
       </c>
       <c r="E19">
-        <v>35.73396593007788</v>
+        <v>19.01125871118494</v>
       </c>
       <c r="F19">
-        <v>38.44464904656611</v>
+        <v>35.9998129081547</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.41753656520532</v>
+        <v>13.61045135656503</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.66320071033501</v>
+        <v>20.82373899202287</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.15002598886343</v>
+        <v>14.69197974060202</v>
       </c>
       <c r="C20">
-        <v>13.10907074802712</v>
+        <v>7.316872478736598</v>
       </c>
       <c r="D20">
-        <v>4.123172650222512</v>
+        <v>6.438309571436342</v>
       </c>
       <c r="E20">
-        <v>36.54990994532012</v>
+        <v>19.37833944310913</v>
       </c>
       <c r="F20">
-        <v>39.0504781723232</v>
+        <v>36.13200980873474</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.81011910297343</v>
+        <v>13.70520354053444</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.6461650726843</v>
+        <v>20.81607627072454</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.61348654955831</v>
+        <v>15.11990360562713</v>
       </c>
       <c r="C21">
-        <v>14.02032587986225</v>
+        <v>7.663131747590363</v>
       </c>
       <c r="D21">
-        <v>3.993651517345211</v>
+        <v>6.420562503579961</v>
       </c>
       <c r="E21">
-        <v>39.25106253990956</v>
+        <v>20.56549918170506</v>
       </c>
       <c r="F21">
-        <v>41.08902559922302</v>
+        <v>36.58310108768826</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.09811220778884</v>
+        <v>14.02347432312989</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.60016148597439</v>
+        <v>20.79253196837691</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.54503979677077</v>
+        <v>15.39674379772453</v>
       </c>
       <c r="C22">
-        <v>14.60234011826652</v>
+        <v>7.882859397866603</v>
       </c>
       <c r="D22">
-        <v>3.907602158079531</v>
+        <v>6.409165698470227</v>
       </c>
       <c r="E22">
-        <v>40.99213634454112</v>
+        <v>21.30713855461095</v>
       </c>
       <c r="F22">
-        <v>42.42511173990226</v>
+        <v>36.88269940358328</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.91836224387404</v>
+        <v>14.2310403880351</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.57933098325974</v>
+        <v>20.77879083166588</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.05001311590598</v>
+        <v>15.24928061014623</v>
       </c>
       <c r="C23">
-        <v>14.29285633635522</v>
+        <v>7.766205323707713</v>
       </c>
       <c r="D23">
-        <v>3.953673483780597</v>
+        <v>6.415230012740222</v>
       </c>
       <c r="E23">
-        <v>40.06471115588675</v>
+        <v>20.91443283722317</v>
       </c>
       <c r="F23">
-        <v>41.71155110371478</v>
+        <v>36.72238496427213</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.48243863293568</v>
+        <v>14.12032283203506</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.58954404486717</v>
+        <v>20.78597372117634</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12566136112098</v>
+        <v>14.68494517735676</v>
       </c>
       <c r="C24">
-        <v>13.09392903293832</v>
+        <v>7.311106212038965</v>
       </c>
       <c r="D24">
-        <v>4.125269679313854</v>
+        <v>6.438603069710258</v>
       </c>
       <c r="E24">
-        <v>36.50526723927312</v>
+        <v>19.35835532231429</v>
       </c>
       <c r="F24">
-        <v>39.01720039782723</v>
+        <v>36.12472316713601</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.78868086420106</v>
+        <v>13.69999952952016</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.64706036795281</v>
+        <v>20.81648880343244</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.93254378747418</v>
+        <v>14.06753569357259</v>
       </c>
       <c r="C25">
-        <v>11.73446458187092</v>
+        <v>6.794005497978477</v>
       </c>
       <c r="D25">
-        <v>4.305972011458675</v>
+        <v>6.46469204244773</v>
       </c>
       <c r="E25">
-        <v>32.52639930716663</v>
+        <v>17.58471719701079</v>
       </c>
       <c r="F25">
-        <v>36.11899212236079</v>
+        <v>35.50302250119584</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.85939448927666</v>
+        <v>13.24721134675372</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.74343379664967</v>
+        <v>20.85643602709017</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.60954197817034</v>
+        <v>17.20679422227744</v>
       </c>
       <c r="C2">
-        <v>6.393399622049738</v>
+        <v>10.66886410431572</v>
       </c>
       <c r="D2">
-        <v>6.484671421832314</v>
+        <v>4.436891159557116</v>
       </c>
       <c r="E2">
-        <v>16.30822471466247</v>
+        <v>29.44451117629915</v>
       </c>
       <c r="F2">
-        <v>35.06749170459229</v>
+        <v>33.98834007478528</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.91713939145572</v>
+        <v>15.34139931639021</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.891858391433</v>
+        <v>14.83897316827643</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2992885757827</v>
+        <v>15.96386665660253</v>
       </c>
       <c r="C3">
-        <v>6.111244584545777</v>
+        <v>9.903166996951049</v>
       </c>
       <c r="D3">
-        <v>6.49869982611556</v>
+        <v>4.525017116876994</v>
       </c>
       <c r="E3">
-        <v>15.39321256051904</v>
+        <v>27.24775550795911</v>
       </c>
       <c r="F3">
-        <v>34.78736585981594</v>
+        <v>32.54770663738601</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.69698921044756</v>
+        <v>14.24781842474706</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.9195938942269</v>
+        <v>14.91700181444216</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.10965990068869</v>
+        <v>15.16334251513505</v>
       </c>
       <c r="C4">
-        <v>5.933454043404323</v>
+        <v>9.410627758974227</v>
       </c>
       <c r="D4">
-        <v>6.507556599173099</v>
+        <v>4.579048165803233</v>
       </c>
       <c r="E4">
-        <v>14.80825640629559</v>
+        <v>25.84188967941885</v>
       </c>
       <c r="F4">
-        <v>34.6231509947717</v>
+        <v>31.66602331450912</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.56406682283926</v>
+        <v>13.54321028008966</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.9384568268156</v>
+        <v>14.97087897234579</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.03272826527362</v>
+        <v>14.82757462263859</v>
       </c>
       <c r="C5">
-        <v>5.859983051374364</v>
+        <v>9.204156806298851</v>
       </c>
       <c r="D5">
-        <v>6.511227304035269</v>
+        <v>4.601076083245108</v>
       </c>
       <c r="E5">
-        <v>14.56434032838415</v>
+        <v>25.25414725391536</v>
       </c>
       <c r="F5">
-        <v>34.55824208636092</v>
+        <v>31.30771666009054</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.51054216047675</v>
+        <v>13.24758312268725</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.94660367206179</v>
+        <v>14.99425655398738</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.01997828563072</v>
+        <v>14.77123981303615</v>
       </c>
       <c r="C6">
-        <v>5.84772555155997</v>
+        <v>9.169521265833279</v>
       </c>
       <c r="D6">
-        <v>6.51184054558383</v>
+        <v>4.604735221812145</v>
       </c>
       <c r="E6">
-        <v>14.52351264597438</v>
+        <v>25.15564306868149</v>
       </c>
       <c r="F6">
-        <v>34.54758687092048</v>
+        <v>31.24828859433463</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.5016954376963</v>
+        <v>13.19797702506968</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.94798420787842</v>
+        <v>14.99822213091289</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.10862081530594</v>
+        <v>15.15885308063852</v>
       </c>
       <c r="C7">
-        <v>5.93246714334597</v>
+        <v>9.407866688760748</v>
       </c>
       <c r="D7">
-        <v>6.507605854198372</v>
+        <v>4.579345164587212</v>
       </c>
       <c r="E7">
-        <v>14.80498890344664</v>
+        <v>25.83402389260253</v>
       </c>
       <c r="F7">
-        <v>34.62226740577962</v>
+        <v>31.66118667723909</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.56334226974296</v>
+        <v>13.53925794164387</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.93856483664792</v>
+        <v>14.97118859025592</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.50246073389704</v>
+        <v>16.78588962013858</v>
       </c>
       <c r="C8">
-        <v>6.297125440170423</v>
+        <v>10.40942202253792</v>
       </c>
       <c r="D8">
-        <v>6.48945812067759</v>
+        <v>4.46731180573221</v>
       </c>
       <c r="E8">
-        <v>15.99768001179848</v>
+        <v>28.69859775810651</v>
       </c>
       <c r="F8">
-        <v>34.96932169457211</v>
+        <v>33.49115194365358</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.84081046580321</v>
+        <v>14.97111243986302</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.9010405474021</v>
+        <v>14.86458943476706</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27632484620003</v>
+        <v>19.68792813935858</v>
       </c>
       <c r="C9">
-        <v>6.971478470939132</v>
+        <v>12.20197486868727</v>
       </c>
       <c r="D9">
-        <v>6.455785322062487</v>
+        <v>4.245537045341131</v>
       </c>
       <c r="E9">
-        <v>18.16694151412855</v>
+        <v>33.88839886403957</v>
       </c>
       <c r="F9">
-        <v>35.70915304109329</v>
+        <v>37.0947082124508</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.39941147107716</v>
+        <v>17.52383707487787</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.84204368229366</v>
+        <v>14.70685092548477</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.83898125040862</v>
+        <v>21.6566850603588</v>
       </c>
       <c r="C10">
-        <v>7.436798923953047</v>
+        <v>13.42415215955323</v>
       </c>
       <c r="D10">
-        <v>6.432190744138206</v>
+        <v>4.079123080225115</v>
       </c>
       <c r="E10">
-        <v>19.79230145112535</v>
+        <v>37.48061365072377</v>
       </c>
       <c r="F10">
-        <v>36.28525387245367</v>
+        <v>39.74750534339364</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.81416497874535</v>
+        <v>19.25595847879524</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.80765111702454</v>
+        <v>14.62848486748837</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.09232927512505</v>
+        <v>22.52014521217182</v>
       </c>
       <c r="C11">
-        <v>7.641072030997472</v>
+        <v>13.96209612006377</v>
       </c>
       <c r="D11">
-        <v>6.421700686622358</v>
+        <v>4.002120413745528</v>
       </c>
       <c r="E11">
-        <v>20.49057219916623</v>
+        <v>39.07757486793404</v>
       </c>
       <c r="F11">
-        <v>36.55358423532507</v>
+        <v>40.95674760432655</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.00286883827783</v>
+        <v>20.01594191875743</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.79396176333264</v>
+        <v>14.60262309149671</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.18778806604158</v>
+        <v>22.84281494388632</v>
       </c>
       <c r="C12">
-        <v>7.717301828672936</v>
+        <v>14.16345582757811</v>
       </c>
       <c r="D12">
-        <v>6.417762997475804</v>
+        <v>3.972725345729625</v>
       </c>
       <c r="E12">
-        <v>20.74911539155542</v>
+        <v>39.67803337096549</v>
       </c>
       <c r="F12">
-        <v>36.65602188190193</v>
+        <v>41.41527181393652</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.07425658488973</v>
+        <v>20.30000828068306</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.7890602798137</v>
+        <v>14.59439843218234</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.16725216986949</v>
+        <v>22.7735080929494</v>
       </c>
       <c r="C13">
-        <v>7.700935216203499</v>
+        <v>14.12018953752265</v>
       </c>
       <c r="D13">
-        <v>6.4186095123013</v>
+        <v>3.979067405205996</v>
       </c>
       <c r="E13">
-        <v>20.69369430052276</v>
+        <v>39.5488850647989</v>
       </c>
       <c r="F13">
-        <v>36.63392451363456</v>
+        <v>41.31648774940701</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.05888624086138</v>
+        <v>20.23898985660755</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.79010332551457</v>
+        <v>14.59609717777099</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.10019288827499</v>
+        <v>22.54677571372673</v>
       </c>
       <c r="C14">
-        <v>7.647366336390189</v>
+        <v>13.97870762605592</v>
       </c>
       <c r="D14">
-        <v>6.421376037533744</v>
+        <v>3.999707083109989</v>
       </c>
       <c r="E14">
-        <v>20.5119602811163</v>
+        <v>39.12705387270847</v>
       </c>
       <c r="F14">
-        <v>36.56199569761717</v>
+        <v>40.99445648722195</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.00874377750369</v>
+        <v>20.03938497499096</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.79355284973228</v>
+        <v>14.60191399999788</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.05905185548993</v>
+        <v>22.40734531822598</v>
       </c>
       <c r="C15">
-        <v>7.614405868361517</v>
+        <v>13.8917479908776</v>
       </c>
       <c r="D15">
-        <v>6.423075119774873</v>
+        <v>4.012317256892524</v>
       </c>
       <c r="E15">
-        <v>20.3998786606917</v>
+        <v>38.86814803886762</v>
       </c>
       <c r="F15">
-        <v>36.51804268920968</v>
+        <v>40.79729241811302</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.97801874830459</v>
+        <v>19.91664599650579</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.79570258965539</v>
+        <v>14.6056864319176</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.82236287387837</v>
+        <v>21.59963531168274</v>
       </c>
       <c r="C16">
-        <v>7.423294929176717</v>
+        <v>13.38865353847385</v>
       </c>
       <c r="D16">
-        <v>6.432881162112674</v>
+        <v>4.084125129735505</v>
       </c>
       <c r="E16">
-        <v>19.74584352617361</v>
+        <v>37.37558793789952</v>
       </c>
       <c r="F16">
-        <v>36.26783757199029</v>
+        <v>39.66854701402943</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.80182689957533</v>
+        <v>19.20575358952361</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.80858520284796</v>
+        <v>14.63038521232479</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6764180950288</v>
+        <v>21.09611192542417</v>
       </c>
       <c r="C17">
-        <v>7.304113088791846</v>
+        <v>13.07556638028556</v>
       </c>
       <c r="D17">
-        <v>6.438958929172565</v>
+        <v>4.127810333852304</v>
       </c>
       <c r="E17">
-        <v>19.33410914472457</v>
+        <v>36.45113831369947</v>
       </c>
       <c r="F17">
-        <v>36.1158963162996</v>
+        <v>38.97687122803435</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.69369265663084</v>
+        <v>18.76268074430551</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.81699003489422</v>
+        <v>14.64815165358519</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.59223488412194</v>
+        <v>20.80345217739155</v>
       </c>
       <c r="C18">
-        <v>7.234868908005302</v>
+        <v>12.89377320740987</v>
       </c>
       <c r="D18">
-        <v>6.442477612752498</v>
+        <v>4.152817689813793</v>
       </c>
       <c r="E18">
-        <v>19.09341850779614</v>
+        <v>35.91584869836149</v>
       </c>
       <c r="F18">
-        <v>36.02909737193072</v>
+        <v>38.57924728638061</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.63150386155303</v>
+        <v>18.50518441112317</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.8220083135886</v>
+        <v>14.65928077931583</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.56369401187717</v>
+        <v>20.70383045686755</v>
       </c>
       <c r="C19">
-        <v>7.211306797032835</v>
+        <v>12.83191994874513</v>
       </c>
       <c r="D19">
-        <v>6.443672923258392</v>
+        <v>4.161265704001126</v>
       </c>
       <c r="E19">
-        <v>19.01125871118494</v>
+        <v>35.73396593007786</v>
       </c>
       <c r="F19">
-        <v>35.9998129081547</v>
+        <v>38.44464904656615</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.61045135656503</v>
+        <v>18.41753656520534</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.82373899202287</v>
+        <v>14.66320071033502</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.69197974060202</v>
+        <v>21.15002598886346</v>
       </c>
       <c r="C20">
-        <v>7.316872478736598</v>
+        <v>13.1090707480271</v>
       </c>
       <c r="D20">
-        <v>6.438309571436342</v>
+        <v>4.123172650222647</v>
       </c>
       <c r="E20">
-        <v>19.37833944310913</v>
+        <v>36.54990994532012</v>
       </c>
       <c r="F20">
-        <v>36.13200980873474</v>
+        <v>39.05047817232331</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.70520354053444</v>
+        <v>18.81011910297348</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.81607627072454</v>
+        <v>14.64616507268429</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.11990360562713</v>
+        <v>22.61348654955835</v>
       </c>
       <c r="C21">
-        <v>7.663131747590363</v>
+        <v>14.02032587986224</v>
       </c>
       <c r="D21">
-        <v>6.420562503579961</v>
+        <v>3.993651517345392</v>
       </c>
       <c r="E21">
-        <v>20.56549918170506</v>
+        <v>39.25106253990953</v>
       </c>
       <c r="F21">
-        <v>36.58310108768826</v>
+        <v>41.08902559922299</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.02347432312989</v>
+        <v>20.09811220778887</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.79253196837691</v>
+        <v>14.6001614859744</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.39674379772453</v>
+        <v>23.54503979677082</v>
       </c>
       <c r="C22">
-        <v>7.882859397866603</v>
+        <v>14.60234011826654</v>
       </c>
       <c r="D22">
-        <v>6.409165698470227</v>
+        <v>3.907602158079648</v>
       </c>
       <c r="E22">
-        <v>21.30713855461095</v>
+        <v>40.99213634454122</v>
       </c>
       <c r="F22">
-        <v>36.88269940358328</v>
+        <v>42.42511173990224</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.2310403880351</v>
+        <v>20.91836224387404</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.77879083166588</v>
+        <v>14.57933098325968</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.24928061014623</v>
+        <v>23.05001311590599</v>
       </c>
       <c r="C23">
-        <v>7.766205323707713</v>
+        <v>14.29285633635534</v>
       </c>
       <c r="D23">
-        <v>6.415230012740222</v>
+        <v>3.953673483780535</v>
       </c>
       <c r="E23">
-        <v>20.91443283722317</v>
+        <v>40.06471115588682</v>
       </c>
       <c r="F23">
-        <v>36.72238496427213</v>
+        <v>41.71155110371475</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.12032283203506</v>
+        <v>20.48243863293574</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.78597372117634</v>
+        <v>14.58954404486712</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.68494517735676</v>
+        <v>21.12566136112101</v>
       </c>
       <c r="C24">
-        <v>7.311106212038965</v>
+        <v>13.09392903293843</v>
       </c>
       <c r="D24">
-        <v>6.438603069710258</v>
+        <v>4.12526967931398</v>
       </c>
       <c r="E24">
-        <v>19.35835532231429</v>
+        <v>36.50526723927315</v>
       </c>
       <c r="F24">
-        <v>36.12472316713601</v>
+        <v>39.01720039782721</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.69999952952016</v>
+        <v>18.78868086420109</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.81648880343244</v>
+        <v>14.64706036795286</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06753569357259</v>
+        <v>18.93254378747419</v>
       </c>
       <c r="C25">
-        <v>6.794005497978477</v>
+        <v>11.73446458187102</v>
       </c>
       <c r="D25">
-        <v>6.46469204244773</v>
+        <v>4.305972011458863</v>
       </c>
       <c r="E25">
-        <v>17.58471719701079</v>
+        <v>32.52639930716653</v>
       </c>
       <c r="F25">
-        <v>35.50302250119584</v>
+        <v>36.11899212236084</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.24721134675372</v>
+        <v>16.85939448927665</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.85643602709017</v>
+        <v>14.74343379664971</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,988 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.20679422227744</v>
+        <v>24.13587569666119</v>
       </c>
       <c r="C2">
-        <v>10.66886410431572</v>
+        <v>16.75780367996098</v>
       </c>
       <c r="D2">
-        <v>4.436891159557116</v>
+        <v>2.250635417220415</v>
       </c>
       <c r="E2">
-        <v>29.44451117629915</v>
+        <v>5.428788894787638</v>
       </c>
       <c r="F2">
-        <v>33.98834007478528</v>
+        <v>44.04443000797772</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.448214378685651</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.11148622285141</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>15.34139931639021</v>
+        <v>28.86697247352326</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.675933541786034</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.83897316827643</v>
+        <v>7.886923261262583</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.96386665660253</v>
+        <v>22.63348929307343</v>
       </c>
       <c r="C3">
-        <v>9.903166996951049</v>
+        <v>15.58896873596373</v>
       </c>
       <c r="D3">
-        <v>4.525017116876994</v>
+        <v>2.130810444382711</v>
       </c>
       <c r="E3">
-        <v>27.24775550795911</v>
+        <v>5.249872401064223</v>
       </c>
       <c r="F3">
-        <v>32.54770663738601</v>
+        <v>42.34691616965506</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.797659219619165</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.403505984032653</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>14.24781842474706</v>
+        <v>28.02907346555776</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.568658766178885</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.91700181444216</v>
+        <v>7.586392204265286</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.16334251513505</v>
+        <v>21.66342882346217</v>
       </c>
       <c r="C4">
-        <v>9.410627758974227</v>
+        <v>14.83542670352829</v>
       </c>
       <c r="D4">
-        <v>4.579048165803233</v>
+        <v>2.054191193979048</v>
       </c>
       <c r="E4">
-        <v>25.84188967941885</v>
+        <v>5.137446680990641</v>
       </c>
       <c r="F4">
-        <v>31.66602331450912</v>
+        <v>41.27294588638773</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.018635792486567</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.588556539991481</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.54321028008966</v>
+        <v>27.50057231691536</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.500579557656453</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.97087897234579</v>
+        <v>7.39737298155546</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.82757462263859</v>
+        <v>21.25648347924646</v>
       </c>
       <c r="C5">
-        <v>9.204156806298851</v>
+        <v>14.52595849832671</v>
       </c>
       <c r="D5">
-        <v>4.601076083245108</v>
+        <v>2.019050959571056</v>
       </c>
       <c r="E5">
-        <v>25.25414725391536</v>
+        <v>5.090711689468399</v>
       </c>
       <c r="F5">
-        <v>31.30771666009054</v>
+        <v>40.79327154929477</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.111049063662986</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.668059112174509</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>13.24758312268725</v>
+        <v>27.25594287053903</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.471156002843458</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.99425655398738</v>
+        <v>7.321378682949116</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.77123981303615</v>
+        <v>21.1884530848982</v>
       </c>
       <c r="C6">
-        <v>9.169521265833279</v>
+        <v>14.48219683487186</v>
       </c>
       <c r="D6">
-        <v>4.604735221812145</v>
+        <v>2.009342174035195</v>
       </c>
       <c r="E6">
-        <v>25.15564306868149</v>
+        <v>5.082615055726033</v>
       </c>
       <c r="F6">
-        <v>31.24828859433463</v>
+        <v>40.6709878136862</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.127350845738918</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.684660043935711</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>13.19797702506968</v>
+        <v>27.18344057571858</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.464880755059753</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.99822213091289</v>
+        <v>7.311260312932213</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.15885308063852</v>
+        <v>21.65861463559763</v>
       </c>
       <c r="C7">
-        <v>9.407866688760748</v>
+        <v>14.85300987049744</v>
       </c>
       <c r="D7">
-        <v>4.579345164587212</v>
+        <v>2.043330834057077</v>
       </c>
       <c r="E7">
-        <v>25.83402389260253</v>
+        <v>5.136019823054832</v>
       </c>
       <c r="F7">
-        <v>31.66118667723909</v>
+        <v>41.15275562850081</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.022189127468259</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.59844626274016</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.53925794164387</v>
+        <v>27.41154762520261</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.496518055702468</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.97118859025592</v>
+        <v>7.403257649364347</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.78588962013858</v>
+        <v>23.62834345594631</v>
       </c>
       <c r="C8">
-        <v>10.40942202253792</v>
+        <v>16.38842236888549</v>
       </c>
       <c r="D8">
-        <v>4.46731180573221</v>
+        <v>2.196706763798538</v>
       </c>
       <c r="E8">
-        <v>28.69859775810651</v>
+        <v>5.366574955471213</v>
       </c>
       <c r="F8">
-        <v>33.49115194365358</v>
+        <v>43.32225292113968</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.570373344096149</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.222404146377188</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>14.97111243986302</v>
+        <v>28.47145350498538</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.634691754790027</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.86458943476706</v>
+        <v>7.792997578374152</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.68792813935858</v>
+        <v>27.10967153313908</v>
       </c>
       <c r="C9">
-        <v>12.20197486868727</v>
+        <v>19.08400876957086</v>
       </c>
       <c r="D9">
-        <v>4.245537045341131</v>
+        <v>2.491179738992669</v>
       </c>
       <c r="E9">
-        <v>33.88839886403957</v>
+        <v>5.801280584042172</v>
       </c>
       <c r="F9">
-        <v>37.0947082124508</v>
+        <v>47.49953294852872</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.728917468389842</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.514093152320836</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>17.52383707487787</v>
+        <v>30.57797293448789</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.895092097180794</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.70685092548477</v>
+        <v>8.50750503235947</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.6566850603588</v>
+        <v>29.4335462115899</v>
       </c>
       <c r="C10">
-        <v>13.42415215955323</v>
+        <v>20.90078128338007</v>
       </c>
       <c r="D10">
-        <v>4.079123080225115</v>
+        <v>2.681183299741516</v>
       </c>
       <c r="E10">
-        <v>37.48061365072377</v>
+        <v>6.101310638536859</v>
       </c>
       <c r="F10">
-        <v>39.74750534339364</v>
+        <v>49.85400389489653</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.173488609297983</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.035742256103358</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>19.25595847879524</v>
+        <v>31.67174347590884</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.048176267564826</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.62848486748837</v>
+        <v>8.934681778039186</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.52014521217182</v>
+        <v>30.4362032583718</v>
       </c>
       <c r="C11">
-        <v>13.96209612006377</v>
+        <v>21.66837958295984</v>
       </c>
       <c r="D11">
-        <v>4.002120413745528</v>
+        <v>2.696605279122197</v>
       </c>
       <c r="E11">
-        <v>39.07757486793404</v>
+        <v>6.228012586742577</v>
       </c>
       <c r="F11">
-        <v>40.95674760432655</v>
+        <v>46.57676563691592</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3.004136300217429</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.937818910787212</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>20.01594191875743</v>
+        <v>29.16372914514101</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.937287519663656</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.60262309149671</v>
+        <v>8.492822438245311</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.84281494388632</v>
+        <v>30.80625462830702</v>
       </c>
       <c r="C12">
-        <v>14.16345582757811</v>
+        <v>21.92100106523619</v>
       </c>
       <c r="D12">
-        <v>3.972725345729625</v>
+        <v>2.695171727340956</v>
       </c>
       <c r="E12">
-        <v>39.67803337096549</v>
+        <v>6.376270770655402</v>
       </c>
       <c r="F12">
-        <v>41.41527181393652</v>
+        <v>43.44216893379568</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.317541837192328</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.929805029233893</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>20.30000828068306</v>
+        <v>26.94310343721452</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.90142414952413</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.59439843218234</v>
+        <v>8.02228814260148</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.7735080929494</v>
+        <v>30.72494961473361</v>
       </c>
       <c r="C13">
-        <v>14.12018953752265</v>
+        <v>21.8254101966956</v>
       </c>
       <c r="D13">
-        <v>3.979067405205996</v>
+        <v>2.665149597785551</v>
       </c>
       <c r="E13">
-        <v>39.5488850647989</v>
+        <v>6.541207029416666</v>
       </c>
       <c r="F13">
-        <v>41.31648774940701</v>
+        <v>40.01413030579468</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.726123163871525</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.006605116180424</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>20.23898985660755</v>
+        <v>24.67037598702526</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.914771043159075</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.59609717777099</v>
+        <v>7.503604342370367</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54677571372673</v>
+        <v>30.46360991980206</v>
       </c>
       <c r="C14">
-        <v>13.97870762605592</v>
+        <v>21.60562018841156</v>
       </c>
       <c r="D14">
-        <v>3.999707083109989</v>
+        <v>2.630758942677335</v>
       </c>
       <c r="E14">
-        <v>39.12705387270847</v>
+        <v>6.673493815059858</v>
       </c>
       <c r="F14">
-        <v>40.99445648722195</v>
+        <v>37.43370268034654</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.737099552515533</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.101120747354186</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>20.03938497499096</v>
+        <v>23.04287928112879</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.956438748137221</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.60191399999788</v>
+        <v>7.119554562867145</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.40734531822598</v>
+        <v>30.30300266593966</v>
       </c>
       <c r="C15">
-        <v>13.8917479908776</v>
+        <v>21.48335423088453</v>
       </c>
       <c r="D15">
-        <v>4.012317256892524</v>
+        <v>2.613305188582318</v>
       </c>
       <c r="E15">
-        <v>38.86814803886762</v>
+        <v>6.695775169058248</v>
       </c>
       <c r="F15">
-        <v>40.79729241811302</v>
+        <v>36.70576206012111</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.977485155735645</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.147627644737117</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>19.91664599650579</v>
+        <v>22.60936198264276</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.965629804988284</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.6056864319176</v>
+        <v>7.01734295182677</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.59963531168274</v>
+        <v>29.36851619112825</v>
       </c>
       <c r="C16">
-        <v>13.38865353847385</v>
+        <v>20.7658237089905</v>
       </c>
       <c r="D16">
-        <v>4.084125129735505</v>
+        <v>2.532495720524242</v>
       </c>
       <c r="E16">
-        <v>37.37558793789952</v>
+        <v>6.535828918870407</v>
       </c>
       <c r="F16">
-        <v>39.66854701402943</v>
+        <v>36.1794000500368</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.831849024982604</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.341201437250712</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>19.20575358952361</v>
+        <v>22.49739551534155</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.892885770362859</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.63038521232479</v>
+        <v>6.926636468567852</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.09611192542417</v>
+        <v>28.78135281029137</v>
       </c>
       <c r="C17">
-        <v>13.07556638028556</v>
+        <v>20.32660974400657</v>
       </c>
       <c r="D17">
-        <v>4.127810333852304</v>
+        <v>2.487048528648459</v>
       </c>
       <c r="E17">
-        <v>36.45113831369947</v>
+        <v>6.331228079982802</v>
       </c>
       <c r="F17">
-        <v>38.97687122803435</v>
+        <v>37.180354047946</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.165741635091836</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.440701091139804</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>18.76268074430551</v>
+        <v>23.2767494576747</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.806813387192012</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.64815165358519</v>
+        <v>7.064680336107481</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.80345217739155</v>
+        <v>28.4369973365025</v>
       </c>
       <c r="C18">
-        <v>12.89377320740987</v>
+        <v>20.07142850709529</v>
       </c>
       <c r="D18">
-        <v>4.152817689813793</v>
+        <v>2.476585142610662</v>
       </c>
       <c r="E18">
-        <v>35.91584869836149</v>
+        <v>6.1086470140041</v>
       </c>
       <c r="F18">
-        <v>38.57924728638061</v>
+        <v>39.70270604657384</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>5.015138327778399</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.456592961221362</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>18.50518441112317</v>
+        <v>25.00496942550205</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.741559139036402</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.65928077931583</v>
+        <v>7.416892762697391</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.70383045686755</v>
+        <v>28.3173853485506</v>
       </c>
       <c r="C19">
-        <v>12.83191994874513</v>
+        <v>20.01931927340438</v>
       </c>
       <c r="D19">
-        <v>4.161265704001126</v>
+        <v>2.494064092057738</v>
       </c>
       <c r="E19">
-        <v>35.73396593007786</v>
+        <v>5.958285545206837</v>
       </c>
       <c r="F19">
-        <v>38.44464904656615</v>
+        <v>43.08235013653729</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.688950492878049</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.4174171652692</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>18.41753656520534</v>
+        <v>27.27751046417386</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.760243844730663</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.66320071033502</v>
+        <v>7.930814199582406</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.15002598886346</v>
+        <v>28.8393223170685</v>
       </c>
       <c r="C20">
-        <v>13.1090707480271</v>
+        <v>20.48476651996962</v>
       </c>
       <c r="D20">
-        <v>4.123172650222647</v>
+        <v>2.604809194695411</v>
       </c>
       <c r="E20">
-        <v>36.54990994532012</v>
+        <v>6.01997822705284</v>
       </c>
       <c r="F20">
-        <v>39.05047817232331</v>
+        <v>48.92335481757699</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.324011612090455</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.192101873928647</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>18.81011910297348</v>
+        <v>31.13854633596166</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.997116791775361</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.64616507268429</v>
+        <v>8.838935487189618</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.61348654955835</v>
+        <v>30.54842134206634</v>
       </c>
       <c r="C21">
-        <v>14.02032587986224</v>
+        <v>21.82254310546308</v>
       </c>
       <c r="D21">
-        <v>3.993651517345392</v>
+        <v>2.765457751244936</v>
       </c>
       <c r="E21">
-        <v>39.25106253990953</v>
+        <v>6.26422742211953</v>
       </c>
       <c r="F21">
-        <v>41.08902559922299</v>
+        <v>51.50036981496736</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.849986031927277</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.809711446721534</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>20.09811220778887</v>
+        <v>32.5306586750141</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.156790888471317</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.6001614859744</v>
+        <v>9.269399567779001</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.54503979677082</v>
+        <v>31.62362850727567</v>
       </c>
       <c r="C22">
-        <v>14.60234011826654</v>
+        <v>22.6471742913082</v>
       </c>
       <c r="D22">
-        <v>3.907602158079648</v>
+        <v>2.874862760124951</v>
       </c>
       <c r="E22">
-        <v>40.99213634454122</v>
+        <v>6.418797698218458</v>
       </c>
       <c r="F22">
-        <v>42.42511173990224</v>
+        <v>53.01505181003855</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.563057798574704</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.5556781046271</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>20.91836224387404</v>
+        <v>33.34432087306265</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.250066944966093</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>14.57933098325968</v>
+        <v>9.499959482562341</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.05001311590599</v>
+        <v>31.0537204650778</v>
       </c>
       <c r="C23">
-        <v>14.29285633635534</v>
+        <v>22.19196645027511</v>
       </c>
       <c r="D23">
-        <v>3.953673483780535</v>
+        <v>2.826459743671887</v>
       </c>
       <c r="E23">
-        <v>40.06471115588682</v>
+        <v>6.337245477019489</v>
       </c>
       <c r="F23">
-        <v>41.71155110371475</v>
+        <v>52.31854738022665</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.711085472383704</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.677581336435201</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>20.48243863293574</v>
+        <v>32.9974015065238</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.204210798820289</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>14.58954404486712</v>
+        <v>9.370762423845811</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.12566136112101</v>
+        <v>28.81058555705326</v>
       </c>
       <c r="C24">
-        <v>13.09392903293843</v>
+        <v>20.4376382931868</v>
       </c>
       <c r="D24">
-        <v>4.12526967931398</v>
+        <v>2.623866776862866</v>
       </c>
       <c r="E24">
-        <v>36.50526723927315</v>
+        <v>6.025452515073275</v>
       </c>
       <c r="F24">
-        <v>39.01720039782721</v>
+        <v>49.44375134887531</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.301579629209601</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.16963845012749</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>18.78868086420109</v>
+        <v>31.52050215281605</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.022122042118019</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.64706036795286</v>
+        <v>8.880999307252857</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.93254378747419</v>
+        <v>26.20925291778138</v>
       </c>
       <c r="C25">
-        <v>11.73446458187102</v>
+        <v>18.41624165056927</v>
       </c>
       <c r="D25">
-        <v>4.305972011458863</v>
+        <v>2.397197012912007</v>
       </c>
       <c r="E25">
-        <v>32.52639930716653</v>
+        <v>5.684074700375963</v>
       </c>
       <c r="F25">
-        <v>36.11899212236084</v>
+        <v>46.21628116900118</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.955626770415801</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.717890915438458</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>16.85939448927665</v>
+        <v>29.87921141188666</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.820177602813792</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.74343379664971</v>
+        <v>8.329808728861096</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.13587569666119</v>
+        <v>24.09354804396212</v>
       </c>
       <c r="C2">
-        <v>16.75780367996098</v>
+        <v>17.83961304696754</v>
       </c>
       <c r="D2">
-        <v>2.250635417220415</v>
+        <v>2.211565990116278</v>
       </c>
       <c r="E2">
-        <v>5.428788894787638</v>
+        <v>5.570498175764637</v>
       </c>
       <c r="F2">
-        <v>44.04443000797772</v>
+        <v>37.78894071836407</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.448214378685651</v>
+        <v>3.203086608723264</v>
       </c>
       <c r="I2">
-        <v>4.11148622285141</v>
+        <v>3.818732517311697</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>28.86697247352326</v>
+        <v>23.94070228670216</v>
       </c>
       <c r="L2">
-        <v>5.675933541786034</v>
+        <v>18.74420442317455</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.88565246425428</v>
       </c>
       <c r="N2">
-        <v>7.886923261262583</v>
+        <v>5.520863039686404</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.411827473182123</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.63348929307343</v>
+        <v>22.56718457928601</v>
       </c>
       <c r="C3">
-        <v>15.58896873596373</v>
+        <v>16.57747446435615</v>
       </c>
       <c r="D3">
-        <v>2.130810444382711</v>
+        <v>2.138718621853037</v>
       </c>
       <c r="E3">
-        <v>5.249872401064223</v>
+        <v>5.406731200833534</v>
       </c>
       <c r="F3">
-        <v>42.34691616965506</v>
+        <v>36.690435565458</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.797659219619165</v>
+        <v>3.517908429428412</v>
       </c>
       <c r="I3">
-        <v>4.403505984032653</v>
+        <v>4.072282671729027</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>28.02907346555776</v>
+        <v>23.57731643010986</v>
       </c>
       <c r="L3">
-        <v>5.568658766178885</v>
+        <v>18.5773708939073</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>16.5172623720353</v>
       </c>
       <c r="N3">
-        <v>7.586392204265286</v>
+        <v>5.434617246487981</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.084794031728775</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.66342882346217</v>
+        <v>21.57851207915278</v>
       </c>
       <c r="C4">
-        <v>14.83542670352829</v>
+        <v>15.76241986851463</v>
       </c>
       <c r="D4">
-        <v>2.054191193979048</v>
+        <v>2.093712943483638</v>
       </c>
       <c r="E4">
-        <v>5.137446680990641</v>
+        <v>5.303726412871051</v>
       </c>
       <c r="F4">
-        <v>41.27294588638773</v>
+        <v>35.9999437061859</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.018635792486567</v>
+        <v>3.717275517018839</v>
       </c>
       <c r="I4">
-        <v>4.588556539991481</v>
+        <v>4.233419824309573</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>27.50057231691536</v>
+        <v>23.34910829715125</v>
       </c>
       <c r="L4">
-        <v>5.500579557656453</v>
+        <v>18.46370873788215</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16.30479188496847</v>
       </c>
       <c r="N4">
-        <v>7.39737298155546</v>
+        <v>5.379803647572294</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.879043009421624</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.25648347924646</v>
+        <v>21.16289098711518</v>
       </c>
       <c r="C5">
-        <v>14.52595849832671</v>
+        <v>15.42571638362527</v>
       </c>
       <c r="D5">
-        <v>2.019050959571056</v>
+        <v>2.075251595259964</v>
       </c>
       <c r="E5">
-        <v>5.090711689468399</v>
+        <v>5.260900221264916</v>
       </c>
       <c r="F5">
-        <v>40.79327154929477</v>
+        <v>35.6875165052768</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.111049063662986</v>
+        <v>3.800671050657463</v>
       </c>
       <c r="I5">
-        <v>4.668059112174509</v>
+        <v>4.303412024704969</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>27.25594287053903</v>
+        <v>23.2353587368209</v>
       </c>
       <c r="L5">
-        <v>5.471156002843458</v>
+        <v>18.39841665199366</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>16.2084957600394</v>
       </c>
       <c r="N5">
-        <v>7.321378682949116</v>
+        <v>5.356269049101393</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.795736743531097</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.1884530848982</v>
+        <v>21.09327828642875</v>
       </c>
       <c r="C6">
-        <v>14.48219683487186</v>
+        <v>15.37600136679746</v>
       </c>
       <c r="D6">
-        <v>2.009342174035195</v>
+        <v>2.072167589012564</v>
       </c>
       <c r="E6">
-        <v>5.082615055726033</v>
+        <v>5.2534967640794</v>
       </c>
       <c r="F6">
-        <v>40.6709878136862</v>
+        <v>35.60210804201855</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.127350845738918</v>
+        <v>3.815330381344462</v>
       </c>
       <c r="I6">
-        <v>4.684660043935711</v>
+        <v>4.318856084834846</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>27.18344057571858</v>
+        <v>23.19258590275785</v>
       </c>
       <c r="L6">
-        <v>5.464880755059753</v>
+        <v>18.36771278119536</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>16.17643545692072</v>
       </c>
       <c r="N6">
-        <v>7.311260312932213</v>
+        <v>5.351456936909958</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.783914583592224</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.65861463559763</v>
+        <v>21.57338762534497</v>
       </c>
       <c r="C7">
-        <v>14.85300987049744</v>
+        <v>15.77600890221674</v>
       </c>
       <c r="D7">
-        <v>2.043330834057077</v>
+        <v>2.093441554304022</v>
       </c>
       <c r="E7">
-        <v>5.136019823054832</v>
+        <v>5.302469237095512</v>
       </c>
       <c r="F7">
-        <v>41.15275562850081</v>
+        <v>35.90588844883231</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.022189127468259</v>
+        <v>3.720323930119638</v>
       </c>
       <c r="I7">
-        <v>4.59844626274016</v>
+        <v>4.244295459955906</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>27.41154762520261</v>
+        <v>23.28310651379478</v>
       </c>
       <c r="L7">
-        <v>5.496518055702468</v>
+        <v>18.41005952690023</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>16.25875174547343</v>
       </c>
       <c r="N7">
-        <v>7.403257649364347</v>
+        <v>5.377135050878804</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.883527353510873</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.62834345594631</v>
+        <v>23.57833555654275</v>
       </c>
       <c r="C8">
-        <v>16.38842236888549</v>
+        <v>17.4345733061893</v>
       </c>
       <c r="D8">
-        <v>2.196706763798538</v>
+        <v>2.186629879402932</v>
       </c>
       <c r="E8">
-        <v>5.366574955471213</v>
+        <v>5.51365402215349</v>
       </c>
       <c r="F8">
-        <v>43.32225292113968</v>
+        <v>37.29978169218044</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.570373344096149</v>
+        <v>3.312846699089178</v>
       </c>
       <c r="I8">
-        <v>4.222404146377188</v>
+        <v>3.917871575075164</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>28.47145350498538</v>
+        <v>23.73372424544038</v>
       </c>
       <c r="L8">
-        <v>5.634691754790027</v>
+        <v>18.62332811972319</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.69621728202763</v>
       </c>
       <c r="N8">
-        <v>7.792997578374152</v>
+        <v>5.488547287459668</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.307233690160038</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.10967153313908</v>
+        <v>27.0997010715355</v>
       </c>
       <c r="C9">
-        <v>19.08400876957086</v>
+        <v>20.34330607764423</v>
       </c>
       <c r="D9">
-        <v>2.491179738992669</v>
+        <v>2.367811084753622</v>
       </c>
       <c r="E9">
-        <v>5.801280584042172</v>
+        <v>5.910811428787198</v>
       </c>
       <c r="F9">
-        <v>47.49953294852872</v>
+        <v>40.04935164833577</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.728917468389842</v>
+        <v>2.556765709117002</v>
       </c>
       <c r="I9">
-        <v>3.514093152320836</v>
+        <v>3.303275095139066</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>30.57797293448789</v>
+        <v>24.68755446112885</v>
       </c>
       <c r="L9">
-        <v>5.895092097180794</v>
+        <v>19.0404857308171</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.73675249757892</v>
       </c>
       <c r="N9">
-        <v>8.50750503235947</v>
+        <v>5.696815180630398</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.086177916690907</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.4335462115899</v>
+        <v>29.4365130772659</v>
       </c>
       <c r="C10">
-        <v>20.90078128338007</v>
+        <v>22.27616187142406</v>
       </c>
       <c r="D10">
-        <v>2.681183299741516</v>
+        <v>2.508431514853154</v>
       </c>
       <c r="E10">
-        <v>6.101310638536859</v>
+        <v>6.182766796965713</v>
       </c>
       <c r="F10">
-        <v>49.85400389489653</v>
+        <v>41.57375927557256</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.173488609297983</v>
+        <v>2.060942415623214</v>
       </c>
       <c r="I10">
-        <v>3.035742256103358</v>
+        <v>2.89175769408505</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>31.67174347590884</v>
+        <v>25.10218030974679</v>
       </c>
       <c r="L10">
-        <v>6.048176267564826</v>
+        <v>19.0995929220766</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.35292089060924</v>
       </c>
       <c r="N10">
-        <v>8.934681778039186</v>
+        <v>5.826862617492151</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.548723567210638</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.4362032583718</v>
+        <v>30.44143648882704</v>
       </c>
       <c r="C11">
-        <v>21.66837958295984</v>
+        <v>22.93613588031048</v>
       </c>
       <c r="D11">
-        <v>2.696605279122197</v>
+        <v>2.630224983251751</v>
       </c>
       <c r="E11">
-        <v>6.228012586742577</v>
+        <v>6.292381664214449</v>
       </c>
       <c r="F11">
-        <v>46.57676563691592</v>
+        <v>38.99033429219496</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.004136300217429</v>
+        <v>2.928003307069486</v>
       </c>
       <c r="I11">
-        <v>2.937818910787212</v>
+        <v>2.805592298121256</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>29.16372914514101</v>
+        <v>23.21022558853968</v>
       </c>
       <c r="L11">
-        <v>5.937287519663656</v>
+        <v>17.58293746471378</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>17.0403907930176</v>
       </c>
       <c r="N11">
-        <v>8.492822438245311</v>
+        <v>5.815773432254768</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.051875908064217</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80625462830702</v>
+        <v>30.81206113715202</v>
       </c>
       <c r="C12">
-        <v>21.92100106523619</v>
+        <v>23.07648182323499</v>
       </c>
       <c r="D12">
-        <v>2.695171727340956</v>
+        <v>2.699016706277777</v>
       </c>
       <c r="E12">
-        <v>6.376270770655402</v>
+        <v>6.432426753432566</v>
       </c>
       <c r="F12">
-        <v>43.44216893379568</v>
+        <v>36.5864719383649</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.317541837192328</v>
+        <v>4.260595599982605</v>
       </c>
       <c r="I12">
-        <v>2.929805029233893</v>
+        <v>2.792488341412684</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>26.94310343721452</v>
+        <v>21.6306444057628</v>
       </c>
       <c r="L12">
-        <v>5.90142414952413</v>
+        <v>16.3885995299093</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.86274269056237</v>
       </c>
       <c r="N12">
-        <v>8.02228814260148</v>
+        <v>5.856786671763007</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.52844544866743</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72494961473361</v>
+        <v>30.73002565661605</v>
       </c>
       <c r="C13">
-        <v>21.8254101966956</v>
+        <v>22.84980710453759</v>
       </c>
       <c r="D13">
-        <v>2.665149597785551</v>
+        <v>2.732086835181387</v>
       </c>
       <c r="E13">
-        <v>6.541207029416666</v>
+        <v>6.595662673686983</v>
       </c>
       <c r="F13">
-        <v>40.01413030579468</v>
+        <v>34.01108505123741</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.726123163871525</v>
+        <v>5.674963035234707</v>
       </c>
       <c r="I13">
-        <v>3.006605116180424</v>
+        <v>2.853248209079458</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>24.67037598702526</v>
+        <v>20.09908923140018</v>
       </c>
       <c r="L13">
-        <v>5.914771043159075</v>
+        <v>15.28698143186331</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.64711879172285</v>
       </c>
       <c r="N13">
-        <v>7.503604342370367</v>
+        <v>5.932406794414931</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.952753245277604</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46360991980206</v>
+        <v>30.4672437975438</v>
       </c>
       <c r="C14">
-        <v>21.60562018841156</v>
+        <v>22.52638801438096</v>
       </c>
       <c r="D14">
-        <v>2.630758942677335</v>
+        <v>2.739276689394686</v>
       </c>
       <c r="E14">
-        <v>6.673493815059858</v>
+        <v>6.729636931115787</v>
       </c>
       <c r="F14">
-        <v>37.43370268034654</v>
+        <v>32.09672462553161</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.737099552515533</v>
+        <v>6.686472565505343</v>
       </c>
       <c r="I14">
-        <v>3.101120747354186</v>
+        <v>2.932429407134944</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>23.04287928112879</v>
+        <v>19.0452692237452</v>
       </c>
       <c r="L14">
-        <v>5.956438748137221</v>
+        <v>14.54978085877502</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.77889740740694</v>
       </c>
       <c r="N14">
-        <v>7.119554562867145</v>
+        <v>6.007979915563658</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.526469941806877</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30300266593966</v>
+        <v>30.30580034612851</v>
       </c>
       <c r="C15">
-        <v>21.48335423088453</v>
+        <v>22.37333882253019</v>
       </c>
       <c r="D15">
-        <v>2.613305188582318</v>
+        <v>2.734588623603221</v>
       </c>
       <c r="E15">
-        <v>6.695775169058248</v>
+        <v>6.753572742538652</v>
       </c>
       <c r="F15">
-        <v>36.70576206012111</v>
+        <v>31.56605641925426</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.977485155735645</v>
+        <v>6.925644477213229</v>
       </c>
       <c r="I15">
-        <v>3.147627644737117</v>
+        <v>2.973444673686831</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>22.60936198264276</v>
+        <v>18.77939647916297</v>
       </c>
       <c r="L15">
-        <v>5.965629804988284</v>
+        <v>14.36990267936776</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.54887895433362</v>
       </c>
       <c r="N15">
-        <v>7.01734295182677</v>
+        <v>6.023889538039333</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.41281735897196</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.36851619112825</v>
+        <v>29.36643572523519</v>
       </c>
       <c r="C16">
-        <v>20.7658237089905</v>
+        <v>21.61961042249087</v>
       </c>
       <c r="D16">
-        <v>2.532495720524242</v>
+        <v>2.669067909193458</v>
       </c>
       <c r="E16">
-        <v>6.535828918870407</v>
+        <v>6.604750461414103</v>
       </c>
       <c r="F16">
-        <v>36.1794000500368</v>
+        <v>31.2796128324816</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.831849024982604</v>
+        <v>6.765850652002207</v>
       </c>
       <c r="I16">
-        <v>3.341201437250712</v>
+        <v>3.142910423806897</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>22.49739551534155</v>
+        <v>18.85042815021192</v>
       </c>
       <c r="L16">
-        <v>5.892885770362859</v>
+        <v>14.47661881229195</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.50929959416025</v>
       </c>
       <c r="N16">
-        <v>6.926636468567852</v>
+        <v>5.946277770229202</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.315896947703564</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78135281029137</v>
+        <v>28.77609021692823</v>
       </c>
       <c r="C17">
-        <v>20.32660974400657</v>
+        <v>21.2108058214585</v>
       </c>
       <c r="D17">
-        <v>2.487048528648459</v>
+        <v>2.614902278522833</v>
       </c>
       <c r="E17">
-        <v>6.331228079982802</v>
+        <v>6.408218791545657</v>
       </c>
       <c r="F17">
-        <v>37.180354047946</v>
+        <v>32.09968425663258</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.165741635091836</v>
+        <v>6.085428492181887</v>
       </c>
       <c r="I17">
-        <v>3.440701091139804</v>
+        <v>3.231950827902177</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>23.2767494576747</v>
+        <v>19.45970394691881</v>
       </c>
       <c r="L17">
-        <v>5.806813387192012</v>
+        <v>14.95774881420113</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.93108482421143</v>
       </c>
       <c r="N17">
-        <v>7.064680336107481</v>
+        <v>5.840545685154628</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.471934644896935</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.4369973365025</v>
+        <v>28.43074033873965</v>
       </c>
       <c r="C18">
-        <v>20.07142850709529</v>
+        <v>21.0498657182562</v>
       </c>
       <c r="D18">
-        <v>2.476585142610662</v>
+        <v>2.561075183720812</v>
       </c>
       <c r="E18">
-        <v>6.1086470140041</v>
+        <v>6.192370791995253</v>
       </c>
       <c r="F18">
-        <v>39.70270604657384</v>
+        <v>34.03604896202436</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.015138327778399</v>
+        <v>4.916681189749665</v>
       </c>
       <c r="I18">
-        <v>3.456592961221362</v>
+        <v>3.247086562164763</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>25.00496942550205</v>
+        <v>20.67547921343385</v>
       </c>
       <c r="L18">
-        <v>5.741559139036402</v>
+        <v>15.88445422046912</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.83807047734107</v>
       </c>
       <c r="N18">
-        <v>7.416892762697391</v>
+        <v>5.732397708749499</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.866171737053479</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3173853485506</v>
+        <v>28.31223077603512</v>
       </c>
       <c r="C19">
-        <v>20.01931927340438</v>
+        <v>21.12846625901163</v>
       </c>
       <c r="D19">
-        <v>2.494064092057738</v>
+        <v>2.511655750325429</v>
       </c>
       <c r="E19">
-        <v>5.958285545206837</v>
+        <v>6.047631926241538</v>
       </c>
       <c r="F19">
-        <v>43.08235013653729</v>
+        <v>36.58606582327511</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.688950492878049</v>
+        <v>3.566888262793941</v>
       </c>
       <c r="I19">
-        <v>3.4174171652692</v>
+        <v>3.219746404029197</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>27.27751046417386</v>
+        <v>22.2318678335682</v>
       </c>
       <c r="L19">
-        <v>5.760243844730663</v>
+        <v>17.0612230940356</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.0177613709012</v>
       </c>
       <c r="N19">
-        <v>7.930814199582406</v>
+        <v>5.682770780647654</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.436484439136141</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.8393223170685</v>
+        <v>28.83976656564503</v>
       </c>
       <c r="C20">
-        <v>20.48476651996962</v>
+        <v>21.8217904151992</v>
       </c>
       <c r="D20">
-        <v>2.604809194695411</v>
+        <v>2.473449085853949</v>
       </c>
       <c r="E20">
-        <v>6.01997822705284</v>
+        <v>6.109266908444146</v>
       </c>
       <c r="F20">
-        <v>48.92335481757699</v>
+        <v>40.92186649817127</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.324011612090455</v>
+        <v>2.194307470216895</v>
       </c>
       <c r="I20">
-        <v>3.192101873928647</v>
+        <v>3.035103020872911</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>31.13854633596166</v>
+        <v>24.80399112931163</v>
       </c>
       <c r="L20">
-        <v>5.997116791775361</v>
+        <v>18.94372457904334</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.04307653028645</v>
       </c>
       <c r="N20">
-        <v>8.838935487189618</v>
+        <v>5.786375348825142</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.44014145144325</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.54842134206634</v>
+        <v>30.55426013736254</v>
       </c>
       <c r="C21">
-        <v>21.82254310546308</v>
+        <v>23.27182150563734</v>
       </c>
       <c r="D21">
-        <v>2.765457751244936</v>
+        <v>2.571294448874376</v>
       </c>
       <c r="E21">
-        <v>6.26422742211953</v>
+        <v>6.332591065917721</v>
       </c>
       <c r="F21">
-        <v>51.50036981496736</v>
+        <v>42.68950062161166</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.849986031927277</v>
+        <v>1.769858157227746</v>
       </c>
       <c r="I21">
-        <v>2.809711446721534</v>
+        <v>2.707643946277001</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>32.5306586750141</v>
+        <v>25.5192768584662</v>
       </c>
       <c r="L21">
-        <v>6.156790888471317</v>
+        <v>19.27925433471356</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.8359700405922</v>
       </c>
       <c r="N21">
-        <v>9.269399567779001</v>
+        <v>5.907675795079199</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.909687671228744</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.62362850727567</v>
+        <v>31.63005525608085</v>
       </c>
       <c r="C22">
-        <v>22.6471742913082</v>
+        <v>24.15950074508198</v>
       </c>
       <c r="D22">
-        <v>2.874862760124951</v>
+        <v>2.638476623169389</v>
       </c>
       <c r="E22">
-        <v>6.418797698218458</v>
+        <v>6.472833014017404</v>
       </c>
       <c r="F22">
-        <v>53.01505181003855</v>
+        <v>43.73133569698799</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.563057798574704</v>
+        <v>1.610056773078156</v>
       </c>
       <c r="I22">
-        <v>2.5556781046271</v>
+        <v>2.533684333741776</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>33.34432087306265</v>
+        <v>25.93460094815046</v>
       </c>
       <c r="L22">
-        <v>6.250066944966093</v>
+        <v>19.45223283473761</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.32517660446349</v>
       </c>
       <c r="N22">
-        <v>9.499959482562341</v>
+        <v>5.98101286882819</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.16219110626844</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.0537204650778</v>
+        <v>31.06009163396399</v>
       </c>
       <c r="C23">
-        <v>22.19196645027511</v>
+        <v>23.67392274256714</v>
       </c>
       <c r="D23">
-        <v>2.826459743671887</v>
+        <v>2.601829631345938</v>
       </c>
       <c r="E23">
-        <v>6.337245477019489</v>
+        <v>6.39875968130098</v>
       </c>
       <c r="F23">
-        <v>52.31854738022665</v>
+        <v>43.26380591496105</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.711085472383704</v>
+        <v>1.646376915730613</v>
       </c>
       <c r="I23">
-        <v>2.677581336435201</v>
+        <v>2.588812572150255</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>32.9974015065238</v>
+        <v>25.77938529147885</v>
       </c>
       <c r="L23">
-        <v>6.204210798820289</v>
+        <v>19.40943830652932</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.11443204094903</v>
       </c>
       <c r="N23">
-        <v>9.370762423845811</v>
+        <v>5.944224305896658</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.02259610599074</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.81058555705326</v>
+        <v>28.81111996135372</v>
       </c>
       <c r="C24">
-        <v>20.4376382931868</v>
+        <v>21.79196057745897</v>
       </c>
       <c r="D24">
-        <v>2.623866776862866</v>
+        <v>2.465329533434952</v>
       </c>
       <c r="E24">
-        <v>6.025452515073275</v>
+        <v>6.115247417994557</v>
       </c>
       <c r="F24">
-        <v>49.44375134887531</v>
+        <v>41.32441090664027</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.301579629209601</v>
+        <v>2.173698436960408</v>
       </c>
       <c r="I24">
-        <v>3.16963845012749</v>
+        <v>3.010867392629875</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>31.52050215281605</v>
+        <v>25.08224897579536</v>
       </c>
       <c r="L24">
-        <v>6.022122042118019</v>
+        <v>19.15591991385879</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.25113219059512</v>
       </c>
       <c r="N24">
-        <v>8.880999307252857</v>
+        <v>5.799290737705114</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.489911102238954</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20925291778138</v>
+        <v>26.19124262668103</v>
       </c>
       <c r="C25">
-        <v>18.41624165056927</v>
+        <v>19.61630220180665</v>
       </c>
       <c r="D25">
-        <v>2.397197012912007</v>
+        <v>2.319444442940959</v>
       </c>
       <c r="E25">
-        <v>5.684074700375963</v>
+        <v>5.80398402117484</v>
       </c>
       <c r="F25">
-        <v>46.21628116900118</v>
+        <v>39.17474317026038</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.955626770415801</v>
+        <v>2.759794356446735</v>
       </c>
       <c r="I25">
-        <v>3.717890915438458</v>
+        <v>3.48411874487881</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>29.87921141188666</v>
+        <v>24.32558091739548</v>
       </c>
       <c r="L25">
-        <v>5.820177602813792</v>
+        <v>18.85383824837555</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.36445944187971</v>
       </c>
       <c r="N25">
-        <v>8.329808728861096</v>
+        <v>5.638118660008066</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.889516507077381</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
